--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238791.943495761</v>
+        <v>1267636.254250488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88621.37851299634</v>
+        <v>73025.16756951084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462306</v>
+        <v>8358767.937462307</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104.5113366705975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7286350509854</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.9283458032789</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>386.0957070569908</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>81.12200652863716</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>163.7978702804878</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>30.53362065572538</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624301</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>59.03226091544995</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>314.4162523401806</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0399185806814</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255736</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.837139712981803</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>369.8001874370072</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>354.0807051824523</v>
       </c>
     </row>
     <row r="21">
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.35153719005445</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>378.1699711250221</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>82.92375604299546</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.490928909962322</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>15.57897922163638</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>64.31338514875706</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>81.1220065286369</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>120.4120358099645</v>
+        <v>30.37285828736541</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>277.6533917267861</v>
       </c>
       <c r="G35" t="n">
-        <v>15.69865790865184</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D38" t="n">
-        <v>7.944621118398338</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>200.5196897930037</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>68.9227371348443</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.5106614771179</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>16.2220842599411</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>11.00429467105829</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.32125595057</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.32125595057</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.32125595057</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E2" t="n">
-        <v>768.5330033523257</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F2" t="n">
-        <v>768.5330033523257</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5691952505126</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,22 +4421,22 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>331.8209966133686</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>174.0726240458987</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.58524627281</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.58524627281</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.58524627281</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="F5" t="n">
-        <v>924.5993414832021</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4598,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,22 +4673,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.717708340416</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1626.717708340416</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1240.929455742172</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>829.943550952564</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9797428507509</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>84.78502288675372</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4960,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1328.309493689272</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>852.1958518702625</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>852.1958518702625</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W11" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X11" t="n">
-        <v>2105.048665729205</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y11" t="n">
-        <v>1714.909333753394</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,13 +5123,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,28 +5141,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5203,31 +5205,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
         <v>53.94298182036445</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>807.3934508328825</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F14" t="n">
-        <v>396.407546043275</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5318,10 +5320,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="F16" t="n">
         <v>562.6765899837193</v>
@@ -5428,13 +5430,13 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5546,19 +5548,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
         <v>814.0449459359563</v>
@@ -5589,46 +5591,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>520.9088977430002</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C19" t="n">
-        <v>351.9727148150933</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>702.55736257324</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>702.55736257324</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>702.55736257324</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X19" t="n">
-        <v>702.55736257324</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y19" t="n">
-        <v>702.55736257324</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037877</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D20" t="n">
-        <v>1551.447402037877</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>1165.659149439633</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>754.6732446500255</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5756,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5789,13 +5791,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1613.257399524955</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2674.571780725238</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.425122159422</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.136698977585</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.136698977585</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1215.881273373638</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>846.9187564332267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D23" t="n">
-        <v>846.9187564332267</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E23" t="n">
-        <v>846.9187564332267</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F23" t="n">
-        <v>435.9328516436191</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1992.620445413572</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1602.48111343776</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6175,16 +6177,16 @@
         <v>2334.714009270569</v>
       </c>
       <c r="T25" t="n">
-        <v>2250.95263953017</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="U25" t="n">
-        <v>2250.95263953017</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V25" t="n">
-        <v>2250.95263953017</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W25" t="n">
-        <v>2250.95263953017</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
         <v>2022.963088632153</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036444</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036444</v>
@@ -6227,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2696.653203230381</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2696.653203230381</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.018536202444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.256750840535</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.193863496965</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.425208226851</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1166.959449965771</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y26" t="n">
-        <v>1166.959449965771</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>530.7441767280769</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C28" t="n">
-        <v>361.80799380017</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D28" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E28" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F28" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>712.3926415583167</v>
+        <v>2566.821187183471</v>
       </c>
       <c r="U28" t="n">
-        <v>712.3926415583167</v>
+        <v>2277.647576838039</v>
       </c>
       <c r="V28" t="n">
-        <v>712.3926415583167</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="W28" t="n">
-        <v>712.3926415583167</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X28" t="n">
-        <v>712.3926415583167</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y28" t="n">
-        <v>712.3926415583167</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036444</v>
@@ -6461,13 +6463,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6503,10 +6505,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036444</v>
@@ -6552,37 +6554,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6646,13 +6648,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V31" t="n">
         <v>343.360151857325</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.314837422906</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.352320482494</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D32" t="n">
-        <v>857.086621875744</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E32" t="n">
-        <v>857.086621875744</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F32" t="n">
-        <v>446.1007170861364</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036444</v>
@@ -6698,13 +6700,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6731,19 +6733,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y32" t="n">
-        <v>1970.914677487028</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.6879402326643</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C34" t="n">
-        <v>325.6879402326643</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="D34" t="n">
-        <v>175.5713008203286</v>
+        <v>231.5125841539974</v>
       </c>
       <c r="E34" t="n">
-        <v>175.5713008203286</v>
+        <v>231.5125841539974</v>
       </c>
       <c r="F34" t="n">
-        <v>175.5713008203286</v>
+        <v>84.62263665608708</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036444</v>
@@ -6877,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629041</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>936.2491605982757</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C35" t="n">
-        <v>936.2491605982757</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D35" t="n">
-        <v>936.2491605982757</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E35" t="n">
-        <v>550.4609080000314</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F35" t="n">
-        <v>550.4609080000314</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6962,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>936.2491605982757</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635867</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.0273259635867</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1757.366513095501</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1757.366513095501</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.505845071313</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1757.366513095501</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7260,34 +7262,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H40" t="n">
-        <v>2159.291999533505</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2519.585513306029</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>2519.585513306029</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y40" t="n">
-        <v>2317.040372100974</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036444</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2627.530164619389</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2627.530164619389</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2296.467277275819</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>1943.698622005704</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K42" t="n">
-        <v>368.8844281164668</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L42" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M42" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>336.2769833124028</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T43" t="n">
-        <v>336.2769833124028</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036444</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036444</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.203741822952</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.24122488254</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D44" t="n">
-        <v>961.9755262757897</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E44" t="n">
-        <v>961.9755262757897</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F44" t="n">
-        <v>550.9896214861822</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y44" t="n">
-        <v>2075.803581887074</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7731,19 +7733,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004101</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>182.1941377133717</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>16.03727598905928</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>27.68846296380417</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>70.80930971622409</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,16 +22840,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,10 +22950,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23002,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>122.7251280561032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.8388043680901</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>121.3976955891359</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23078,10 +23080,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23185,16 +23187,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>56.82580834555213</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>306.2406308555576</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>99.36791768061443</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>74.74425144011354</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10.74592769735764</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23786,13 +23788,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>149.3337491288133</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
@@ -23938,13 +23940,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8296335331566</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>43.98398258378779</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>32.15723347360125</v>
       </c>
     </row>
     <row r="21">
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.771212764859861</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.61419889577286</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24263,7 +24265,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.1113494150888</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>53.9874736648494</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24618,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923383</v>
@@ -24652,13 +24654,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>209.4561262364479</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>349.4707848720379</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24971,10 +24973,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>170.1021609796524</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89776644908638</v>
+        <v>136.9369439716855</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0855121121431</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>6.182121090548179</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25369,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D38" t="n">
-        <v>346.7384205022846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25564,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>51.3673158183902</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.51541566508055</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>147.5255832228135</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>6.771212764859797</v>
+        <v>117.5062691663785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.5620857608539</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>214.030810787026</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393944</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157576</v>
@@ -26323,19 +26325,19 @@
         <v>289152.6100157574</v>
       </c>
       <c r="F2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
@@ -26347,10 +26349,10 @@
         <v>289152.6100157574</v>
       </c>
       <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157577</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157576</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>-384187.4557612562</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532884</v>
+        <v>205780.4234532883</v>
       </c>
       <c r="D6" t="n">
         <v>205780.4234532884</v>
@@ -26531,7 +26533,7 @@
         <v>239408.0234532883</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532885</v>
+        <v>239408.0234532886</v>
       </c>
       <c r="G6" t="n">
         <v>239408.0234532885</v>
@@ -26543,25 +26545,25 @@
         <v>239408.0234532884</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069551</v>
+        <v>62984.80426069545</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532885</v>
       </c>
       <c r="L6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="M6" t="n">
-        <v>239408.0234532883</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532886</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="O6" t="n">
+        <v>239408.0234532885</v>
+      </c>
+      <c r="P6" t="n">
         <v>239408.0234532884</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239408.0234532885</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529164</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.8798454939265</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31850,28 +31852,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,22 +31995,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338295</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119866</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32090,25 +32092,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32312,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32795,7 +32797,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -33023,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33272,7 +33274,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
@@ -33506,7 +33508,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
         <v>239.6413398630669</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33980,7 +33982,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>190.1500580638411</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
@@ -33995,16 +33997,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34229,19 +34231,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
         <v>205.8702969983122</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492227</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36452,7 +36454,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36689,7 +36691,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,10 +37399,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>513.7210878918227</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1267636.254250488</v>
+        <v>1216316.592906121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73025.16756951084</v>
+        <v>16389.56422558658</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462307</v>
+        <v>8358767.937462305</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705975</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>81.12200652863716</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>156.0582739785057</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4162523401806</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>253.5111876485552</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>61.67711861392293</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228949</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.62203021035403</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255736</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>291.0602228052458</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.837139712981803</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7218456862863</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.0807051824523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>94.63926978364032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>332.1317943015986</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>22.11041309544134</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>23.05331571552217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>79.22252778418074</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>284.5615160058692</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>339.0399185806811</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>317.0837352438118</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>81.1220065286369</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.37285828736541</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>277.6533917267861</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>323.9918595228958</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.68157701938547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>168.7756050755992</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>11.00429467105829</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583417</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036444</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982752</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224635</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035238</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631121</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8844025563616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>135.8844025563616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>135.8844025563616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>135.8844025563616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>135.8844025563616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143457</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>365.0435780055836</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F10" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124031</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124031</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.946621408918</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C11" t="n">
-        <v>1237.984104468507</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.984104468507</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E11" t="n">
-        <v>852.1958518702625</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F11" t="n">
-        <v>852.1958518702625</v>
+        <v>727.9786966378899</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>310.0148885360768</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y11" t="n">
-        <v>1993.54646147304</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5132,7 +5132,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5141,28 +5141,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785527</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889451</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5320,10 +5320,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.54400078133</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600563</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600563</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600563</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600563</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600563</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600563</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>60.84918355064909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>60.84918355064909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>60.84918355064909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>60.84918355064909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>210.9658229629848</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1226.657559460833</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y20" t="n">
-        <v>1613.257399524955</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5834,40 +5834,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5943,13 +5943,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036445</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C23" t="n">
-        <v>1546.944160717209</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>1188.678462110459</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>802.8902095122144</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>391.9043047226068</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2312.380258669114</v>
+        <v>704.842806716008</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669114</v>
+        <v>704.842806716008</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>415.4256366790474</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785527</v>
+        <v>879.1242652237311</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889451</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6262,16 +6262,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.54400078133</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2566.821187183471</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2277.647576838039</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>2022.963088632152</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755378</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>752.3647613633752</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>341.3788565737677</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036444</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6648,13 +6648,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
         <v>343.360151857325</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036444</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036444</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6733,19 +6733,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6788,16 +6788,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>231.5125841539974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>231.5125841539974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>84.62263665608708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6879,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.41871256837</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.15301396162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>752.3647613633757</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.731920981262</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.742370083244</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>138.3857151273827</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>138.3857151273827</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7423,7 +7423,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>269.9555735993348</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>112.2072010318649</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036446</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1920.409918978289</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>1551.447402037878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>807.393450832883</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2697.149091018223</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2307.009759042411</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7833,22 +7833,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>502.7251118619119</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U46" t="n">
-        <v>502.7251118619119</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V46" t="n">
-        <v>502.7251118619119</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036446</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004101</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>129.2226540149255</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.17392975220741</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>70.80930971622409</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,16 +22840,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.8388043680901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>167.8644987858514</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>16.63754732114094</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.82580834555213</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23238,10 +23238,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>99.36791768061443</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>70.41158511580198</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>156.9075347381719</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049790008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>124.6247908882738</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>58.1807459121672</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>149.3337491288133</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>28.98780970275089</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>25.76377990253181</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.15723347360125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>37.5993063768704</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>202.9246923626429</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>263.2285585264556</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>327.6535179575307</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,13 +24502,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149258</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>30.69118209778793</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>89.79231049789968</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>170.1021609796524</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.9369439716855</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541058</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>51.3673158183902</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>30.69118209778719</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>77.28404477295275</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>117.5062691663785</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>214.030810787026</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.5250393944</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>289152.6100157573</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="D2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="E2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="F2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="E2" t="n">
+      <c r="J2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157575</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
@@ -26346,16 +26346,16 @@
         <v>289152.6100157576</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.4557612562</v>
+        <v>-390255.8695070755</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532883</v>
+        <v>199712.0097074691</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532884</v>
+        <v>199712.0097074691</v>
       </c>
       <c r="E6" t="n">
-        <v>239408.0234532883</v>
+        <v>233339.609707469</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532886</v>
+        <v>233339.6097074691</v>
       </c>
       <c r="G6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074691</v>
       </c>
       <c r="H6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.609707469</v>
       </c>
       <c r="I6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074692</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069545</v>
+        <v>56916.39051487609</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074692</v>
       </c>
       <c r="L6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="M6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,10 +26758,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26773,10 +26773,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529164</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.8798454939265</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31615,16 +31615,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31852,28 +31852,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,22 +31995,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338295</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119866</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32092,25 +32092,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32335,19 +32335,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32572,19 +32572,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32797,7 +32797,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33262,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33274,7 +33274,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034981</v>
@@ -33508,7 +33508,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33520,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034981</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33757,19 +33757,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34468,7 +34468,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492227</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,19 +36445,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328944</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
